--- a/data/trans_orig/P36BPD04_R_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>454402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>433969</v>
+        <v>432752</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>474095</v>
+        <v>473601</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7854434088194109</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7501253400891243</v>
+        <v>0.748021419309273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8194835514496184</v>
+        <v>0.8186290084161065</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1170</v>
@@ -762,19 +762,19 @@
         <v>667315</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>649321</v>
+        <v>647861</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>684679</v>
+        <v>685877</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8132802586603527</v>
+        <v>0.8132802586603528</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.791350103809075</v>
+        <v>0.7895705363218254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8344422757467822</v>
+        <v>0.8359020793320093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1719</v>
@@ -783,19 +783,19 @@
         <v>1121717</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1096562</v>
+        <v>1095036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1149125</v>
+        <v>1148989</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8017692951399916</v>
+        <v>0.8017692951399917</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7837892032506175</v>
+        <v>0.7826985335860639</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8213598397102568</v>
+        <v>0.8212627959705243</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>124127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104434</v>
+        <v>104928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144560</v>
+        <v>145777</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2145565911805893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1805164485503815</v>
+        <v>0.1813709915838934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2498746599108756</v>
+        <v>0.2519785806907269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -833,19 +833,19 @@
         <v>153208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135844</v>
+        <v>134646</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>171202</v>
+        <v>172662</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1867197413396473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1655577242532177</v>
+        <v>0.1640979206679905</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2086498961909247</v>
+        <v>0.2104294636781747</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>396</v>
@@ -854,19 +854,19 @@
         <v>277335</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>249927</v>
+        <v>250063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>302490</v>
+        <v>304016</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1982307048600083</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1786401602897433</v>
+        <v>0.1787372040294757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2162107967493825</v>
+        <v>0.2173014664139365</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>1657979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1609717</v>
+        <v>1610730</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1705374</v>
+        <v>1703492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7436598858498656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7220127744773657</v>
+        <v>0.7224670826668738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7649185562948591</v>
+        <v>0.7640744218135024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2333</v>
@@ -979,19 +979,19 @@
         <v>1701578</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1662920</v>
+        <v>1663317</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1737499</v>
+        <v>1740141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7840418600653212</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7662293517602062</v>
+        <v>0.7664120964733085</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8005935957110633</v>
+        <v>0.8018106616665183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3847</v>
@@ -1000,19 +1000,19 @@
         <v>3359556</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3301284</v>
+        <v>3298012</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3418747</v>
+        <v>3422558</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7635791030874705</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7503347191457966</v>
+        <v>0.7495909660276219</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7770323361173294</v>
+        <v>0.7778984081059427</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>571506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>524111</v>
+        <v>525993</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>619768</v>
+        <v>618755</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2563401141501344</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2350814437051409</v>
+        <v>0.2359255781864978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2779872255226343</v>
+        <v>0.2775329173331263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>586</v>
@@ -1050,19 +1050,19 @@
         <v>468686</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>432765</v>
+        <v>430123</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>507344</v>
+        <v>506947</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2159581399346789</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1994064042889368</v>
+        <v>0.1981893383334817</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2337706482397939</v>
+        <v>0.233587903526691</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1063</v>
@@ -1071,19 +1071,19 @@
         <v>1040193</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>981002</v>
+        <v>977191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1098465</v>
+        <v>1101737</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2364208969125295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2229676638826706</v>
+        <v>0.2221015918940573</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2496652808542034</v>
+        <v>0.2504090339723781</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>561337</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>534355</v>
+        <v>535348</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>581710</v>
+        <v>583354</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7888515526486376</v>
+        <v>0.7888515526486373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7509348629941728</v>
+        <v>0.7523291585305808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8174824570905315</v>
+        <v>0.8197926338561816</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>813</v>
@@ -1196,19 +1196,19 @@
         <v>583968</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>562141</v>
+        <v>562952</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>602332</v>
+        <v>603371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7946477467715684</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7649453182187929</v>
+        <v>0.7660487234903725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8196362058783373</v>
+        <v>0.8210496847083907</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1356</v>
@@ -1217,19 +1217,19 @@
         <v>1145305</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1114024</v>
+        <v>1114488</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1175841</v>
+        <v>1176481</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7917963134293188</v>
+        <v>0.7917963134293184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7701702997570888</v>
+        <v>0.7704913276675107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8129072340166662</v>
+        <v>0.8133498331832324</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>150250</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>129877</v>
+        <v>128233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>177232</v>
+        <v>176239</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2111484473513625</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1825175429094683</v>
+        <v>0.1802073661438183</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2490651370058271</v>
+        <v>0.2476708414694192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>191</v>
@@ -1267,19 +1267,19 @@
         <v>150909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132545</v>
+        <v>131506</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>172736</v>
+        <v>171925</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2053522532284316</v>
+        <v>0.2053522532284315</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1803637941216625</v>
+        <v>0.1789503152916094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2350546817812071</v>
+        <v>0.2339512765096277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>329</v>
@@ -1288,19 +1288,19 @@
         <v>301159</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270623</v>
+        <v>269983</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>332440</v>
+        <v>331976</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2082036865706814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1870927659833345</v>
+        <v>0.1866501668167675</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2298297002429114</v>
+        <v>0.2295086723324893</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2673717</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2614420</v>
+        <v>2611820</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2726701</v>
+        <v>2731285</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7596647687662822</v>
+        <v>0.7596647687662821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7428171122233579</v>
+        <v>0.7420785267463212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7747187223668409</v>
+        <v>0.7760211311312948</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4316</v>
@@ -1413,19 +1413,19 @@
         <v>2952861</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2904045</v>
+        <v>2905834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3000282</v>
+        <v>2996134</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.792573169356656</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7794703249467623</v>
+        <v>0.7799506809460662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8053011785814309</v>
+        <v>0.8041879203431709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6922</v>
@@ -1434,19 +1434,19 @@
         <v>5626578</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5548230</v>
+        <v>5548156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5702249</v>
+        <v>5696419</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7765869438691138</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7657732177240274</v>
+        <v>0.7657629782476351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7870310665433298</v>
+        <v>0.7862263860096591</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>845884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>792900</v>
+        <v>788316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>905181</v>
+        <v>907781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2403352312337177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.225281277633159</v>
+        <v>0.2239788688687051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2571828877766428</v>
+        <v>0.2579214732536786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1031</v>
@@ -1484,19 +1484,19 @@
         <v>772803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>725382</v>
+        <v>729530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821619</v>
+        <v>819830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2074268306433441</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1946988214185691</v>
+        <v>0.195812079656829</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2205296750532378</v>
+        <v>0.2200493190539334</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1788</v>
@@ -1505,19 +1505,19 @@
         <v>1618687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1543016</v>
+        <v>1548846</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1697035</v>
+        <v>1697109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2234130561308864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2129689334566702</v>
+        <v>0.2137736139903409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2342267822759727</v>
+        <v>0.234237021752365</v>
       </c>
     </row>
     <row r="15">
